--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,31 +53,31 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
     <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -537,24 +537,24 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,31 +53,31 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
   </si>
   <si>
     <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-07-17T12:45:54.000Z</t>
   </si>
   <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -537,24 +537,24 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,40 +53,40 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
   </si>
   <si>
     <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -537,21 +537,21 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>6</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -589,7 +589,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>URL</t>
   </si>
@@ -71,6 +71,27 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
   </si>
   <si>
@@ -80,13 +101,13 @@
     <t>2019-07-17T12:45:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -447,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,13 +569,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -577,16 +598,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -607,6 +628,76 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -615,6 +706,8 @@
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -622,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +733,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>URL</t>
   </si>
@@ -53,16 +53,16 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
     <t>unknown</t>
@@ -71,43 +71,118 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
+  </si>
+  <si>
+    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
+  </si>
+  <si>
+    <t>2019-11-28T17:39:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T17:30:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
+  </si>
+  <si>
+    <t>La crise bolivienne. 02.12.2019.</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
   </si>
   <si>
     <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
   </si>
   <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
     <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -468,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,22 +615,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>4463</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -569,28 +644,28 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>3484</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -598,34 +673,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>13867</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -633,34 +708,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>6</v>
+        <v>15248</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -668,36 +743,316 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
+        <v>826</v>
+      </c>
+      <c r="F8" s="3">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4358</v>
+      </c>
+      <c r="F9" s="3">
+        <v>230</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5854</v>
+      </c>
+      <c r="F10" s="3">
+        <v>555</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5880</v>
+      </c>
+      <c r="F11" s="3">
+        <v>594</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2418</v>
+      </c>
+      <c r="F12" s="3">
+        <v>264</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4508</v>
+      </c>
+      <c r="F13" s="3">
+        <v>446</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -708,6 +1063,14 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -715,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -735,9 +1098,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,31 +53,40 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
   </si>
   <si>
     <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
+  </si>
+  <si>
+    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
+  </si>
+  <si>
+    <t>2019-11-28T17:39:56.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
@@ -89,13 +98,22 @@
     <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
-  </si>
-  <si>
-    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
-  </si>
-  <si>
-    <t>2019-11-28T17:39:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
@@ -110,6 +128,36 @@
     <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
+  </si>
+  <si>
+    <t>La crise bolivienne. 02.12.2019.</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
   </si>
   <si>
@@ -119,15 +167,6 @@
     <t>2019-12-05T17:30:01.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
   </si>
   <si>
@@ -135,45 +174,6 @@
   </si>
   <si>
     <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
-  </si>
-  <si>
-    <t>La crise bolivienne. 02.12.2019.</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
@@ -615,13 +615,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F3" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G3" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -650,13 +650,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>3484</v>
+        <v>4463</v>
       </c>
       <c r="F4" s="3">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -685,13 +685,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>13867</v>
+        <v>15248</v>
       </c>
       <c r="F5" s="3">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="G5" s="3">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -720,13 +720,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>15248</v>
+        <v>13867</v>
       </c>
       <c r="F6" s="3">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="G6" s="3">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -749,19 +749,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>4358</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -778,25 +778,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
-        <v>826</v>
+        <v>5880</v>
       </c>
       <c r="F8" s="3">
-        <v>129</v>
+        <v>594</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>4358</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -860,13 +860,13 @@
         <v>39</v>
       </c>
       <c r="E10" s="3">
-        <v>5854</v>
+        <v>4508</v>
       </c>
       <c r="F10" s="3">
-        <v>555</v>
+        <v>446</v>
       </c>
       <c r="G10" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -895,13 +895,13 @@
         <v>42</v>
       </c>
       <c r="E11" s="3">
-        <v>5880</v>
+        <v>2418</v>
       </c>
       <c r="F11" s="3">
-        <v>594</v>
+        <v>264</v>
       </c>
       <c r="G11" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -924,19 +924,19 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>2418</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -953,25 +953,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>4508</v>
+        <v>826</v>
       </c>
       <c r="F13" s="3">
-        <v>446</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -988,25 +988,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>5854</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1029,7 +1029,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>URL</t>
   </si>
@@ -53,49 +53,58 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
   </si>
   <si>
     <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-20T18:05:05.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T5_TMy-Vung</t>
-  </si>
-  <si>
-    <t>Gilets Jaunes et dégénérescence des élites gauchistes. 27.11.2019</t>
-  </si>
-  <si>
-    <t>2019-11-28T17:39:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
+    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
+  </si>
+  <si>
+    <t>La crise bolivienne. 02.12.2019.</t>
+  </si>
+  <si>
+    <t>2019-12-02T17:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T17:30:01.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
@@ -107,6 +116,30 @@
     <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
   </si>
   <si>
@@ -116,16 +149,22 @@
     <t>2019-12-27T13:43:31.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
@@ -137,13 +176,79 @@
     <t>2019-12-17T17:19:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
-  </si>
-  <si>
-    <t>La crise bolivienne. 02.12.2019.</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:30:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
+  </si>
+  <si>
+    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-11-28T16:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
@@ -152,37 +257,7 @@
     <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
   </si>
   <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
     <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T17:30:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -543,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,13 +690,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>3484</v>
+        <v>4463</v>
       </c>
       <c r="F3" s="3">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -630,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -650,13 +725,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>4463</v>
+        <v>13867</v>
       </c>
       <c r="F4" s="3">
-        <v>211</v>
+        <v>934</v>
       </c>
       <c r="G4" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -665,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -685,13 +760,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>15248</v>
+        <v>3484</v>
       </c>
       <c r="F5" s="3">
-        <v>950</v>
+        <v>224</v>
       </c>
       <c r="G5" s="3">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -700,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -720,22 +795,22 @@
         <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>13867</v>
+        <v>2418</v>
       </c>
       <c r="F6" s="3">
-        <v>934</v>
+        <v>264</v>
       </c>
       <c r="G6" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -755,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>4358</v>
+        <v>826</v>
       </c>
       <c r="F7" s="3">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="G7" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -770,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -790,13 +865,13 @@
         <v>32</v>
       </c>
       <c r="E8" s="3">
-        <v>5880</v>
+        <v>4358</v>
       </c>
       <c r="F8" s="3">
-        <v>594</v>
+        <v>230</v>
       </c>
       <c r="G8" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -805,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -825,22 +900,22 @@
         <v>36</v>
       </c>
       <c r="E9" s="3">
+        <v>691</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -854,19 +929,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>4508</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -875,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -883,25 +958,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>2418</v>
+        <v>5880</v>
       </c>
       <c r="F11" s="3">
-        <v>264</v>
+        <v>594</v>
       </c>
       <c r="G11" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -910,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -918,26 +993,26 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
+        <v>1542</v>
+      </c>
+      <c r="F12" s="3">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
@@ -945,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -959,19 +1034,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>826</v>
+        <v>1080</v>
       </c>
       <c r="F13" s="3">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -980,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1000,13 +1075,13 @@
         <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>5854</v>
+        <v>4508</v>
       </c>
       <c r="F14" s="3">
-        <v>555</v>
+        <v>446</v>
       </c>
       <c r="G14" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1015,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1029,30 +1104,310 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="3">
+        <v>1386</v>
+      </c>
+      <c r="F15" s="3">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3">
+        <v>357</v>
+      </c>
+      <c r="F16" s="3">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3">
+        <v>431</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3">
+        <v>346</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3">
+        <v>575</v>
+      </c>
+      <c r="F20" s="3">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5854</v>
+      </c>
+      <c r="F21" s="3">
+        <v>555</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3">
+        <v>541</v>
+      </c>
+      <c r="F22" s="3">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1071,6 +1426,14 @@
     <hyperlink ref="A13" r:id="rId11"/>
     <hyperlink ref="A14" r:id="rId12"/>
     <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1078,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1106,9 +1469,17 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,42 +53,42 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
   </si>
   <si>
     <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-09T15:30:03.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
   </si>
   <si>
@@ -98,6 +98,159 @@
     <t>2019-12-02T17:30:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
+  </si>
+  <si>
+    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-11-28T16:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
+  </si>
+  <si>
+    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:20:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
   </si>
   <si>
@@ -105,159 +258,6 @@
   </si>
   <si>
     <t>2019-12-05T17:30:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
-  </si>
-  <si>
-    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-11-28T16:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -690,13 +690,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>4463</v>
+        <v>3484</v>
       </c>
       <c r="F3" s="3">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G3" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -760,13 +760,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>3484</v>
+        <v>4463</v>
       </c>
       <c r="F5" s="3">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -830,13 +830,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>826</v>
+        <v>4508</v>
       </c>
       <c r="F7" s="3">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>4358</v>
+        <v>431</v>
       </c>
       <c r="F8" s="3">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -888,22 +888,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>691</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -923,34 +923,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
+        <v>691</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -999,7 +999,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -1034,19 +1034,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>1080</v>
+        <v>1386</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1069,19 +1069,19 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>4508</v>
+        <v>541</v>
       </c>
       <c r="F14" s="3">
-        <v>446</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1104,19 +1104,19 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>1386</v>
+        <v>575</v>
       </c>
       <c r="F15" s="3">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="3">
-        <v>357</v>
+        <v>4358</v>
       </c>
       <c r="F16" s="3">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1174,19 +1174,19 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="3">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1209,16 +1209,16 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>1080</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1238,16 +1238,16 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="3">
         <v>346</v>
@@ -1273,25 +1273,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="3">
-        <v>575</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1349,19 +1349,19 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="3">
-        <v>541</v>
+        <v>357</v>
       </c>
       <c r="F22" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1384,19 +1384,19 @@
         <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>826</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>URL</t>
   </si>
@@ -53,82 +53,82 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
+  </si>
+  <si>
+    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
+  </si>
+  <si>
+    <t>2019-12-09T10:30:58.000Z</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EjGuE2dnB_g</t>
-  </si>
-  <si>
-    <t>La crise bolivienne. 02.12.2019.</t>
-  </si>
-  <si>
-    <t>2019-12-02T17:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_ytITzHCuRw</t>
-  </si>
-  <si>
-    <t>Les mille et un costumes de Simon Abkarian | Les histoires de 28' - ARTE Radio Podcast</t>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
   </si>
   <si>
     <t>ARTE Radio</t>
   </si>
   <si>
-    <t>2019-11-28T16:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
@@ -140,13 +140,76 @@
     <t>2019-12-19T16:45:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
+  </si>
+  <si>
+    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
+  </si>
+  <si>
+    <t>2019-12-05T19:10:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
@@ -158,90 +221,6 @@
     <t>2019-12-12T17:11:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=643f1R6IGOY</t>
-  </si>
-  <si>
-    <t>L'Ukraine avant le "Format Normandie". 06.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:20:06.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
   </si>
   <si>
@@ -251,13 +230,25 @@
     <t>2019-12-21T15:00:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tazSKCbjnU8</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le conservatisme ? 05.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T17:30:01.000Z</t>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -618,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,13 +681,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>3484</v>
+        <v>23702</v>
       </c>
       <c r="F3" s="3">
-        <v>224</v>
+        <v>3315</v>
       </c>
       <c r="G3" s="3">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -705,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -725,22 +716,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>13867</v>
+        <v>85071</v>
       </c>
       <c r="F4" s="3">
-        <v>934</v>
+        <v>4248</v>
       </c>
       <c r="G4" s="3">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>464</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -760,13 +751,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>4463</v>
+        <v>52652</v>
       </c>
       <c r="F5" s="3">
-        <v>211</v>
+        <v>7833</v>
       </c>
       <c r="G5" s="3">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -775,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -795,13 +786,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>2418</v>
+        <v>35734</v>
       </c>
       <c r="F6" s="3">
-        <v>264</v>
+        <v>3785</v>
       </c>
       <c r="G6" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -810,34 +801,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>1073</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24429</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2588</v>
+      </c>
+      <c r="G7" s="3">
         <v>29</v>
       </c>
-      <c r="E7" s="3">
-        <v>4508</v>
-      </c>
-      <c r="F7" s="3">
-        <v>446</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8</v>
-      </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
@@ -845,33 +836,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24</v>
+        <v>588</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>431</v>
+        <v>1386</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -880,30 +871,30 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -915,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -929,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -953,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -970,25 +961,25 @@
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>5880</v>
+        <v>90458</v>
       </c>
       <c r="F11" s="3">
-        <v>594</v>
+        <v>5026</v>
       </c>
       <c r="G11" s="3">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>89</v>
+        <v>687</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -999,19 +990,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>1542</v>
+        <v>541</v>
       </c>
       <c r="F12" s="3">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1023,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1034,19 +1025,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>1386</v>
+        <v>1080</v>
       </c>
       <c r="F13" s="3">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1055,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1069,19 +1060,19 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>541</v>
+        <v>38571</v>
       </c>
       <c r="F14" s="3">
-        <v>22</v>
+        <v>5242</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1090,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1104,19 +1095,19 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>575</v>
+        <v>58018</v>
       </c>
       <c r="F15" s="3">
-        <v>38</v>
+        <v>3627</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1125,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1145,13 +1136,13 @@
         <v>58</v>
       </c>
       <c r="E16" s="3">
-        <v>4358</v>
+        <v>75707</v>
       </c>
       <c r="F16" s="3">
-        <v>230</v>
+        <v>4287</v>
       </c>
       <c r="G16" s="3">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1160,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21</v>
+        <v>628</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1174,19 +1165,19 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>106303</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>4496</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1195,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1209,19 +1200,19 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="3">
-        <v>1080</v>
+        <v>575</v>
       </c>
       <c r="F18" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1230,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1244,19 +1235,19 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="3">
-        <v>346</v>
+        <v>1542</v>
       </c>
       <c r="F19" s="3">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1268,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1279,19 +1270,19 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>357</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1303,30 +1294,30 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="3">
-        <v>5854</v>
+        <v>2165</v>
       </c>
       <c r="F21" s="3">
-        <v>555</v>
+        <v>278</v>
       </c>
       <c r="G21" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1335,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1349,66 +1340,31 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="3">
-        <v>357</v>
+        <v>62509</v>
       </c>
       <c r="F22" s="3">
-        <v>13</v>
+        <v>4841</v>
       </c>
       <c r="G22" s="3">
+        <v>96</v>
+      </c>
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3">
-        <v>826</v>
-      </c>
-      <c r="F23" s="3">
-        <v>129</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>24</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1389,6 @@
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
     <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1441,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +1416,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1469,17 +1424,9 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,40 +53,193 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
+  </si>
+  <si>
+    <t>RETRAITES : Le ras-le-bol est général.</t>
+  </si>
+  <si>
+    <t>JEAN-LUC MÉLENCHON</t>
+  </si>
+  <si>
+    <t>2019-12-22T19:50:20.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>['JEAN-LUC MÉLENCHON']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
   </si>
   <si>
     <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
   </si>
   <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
+  </si>
+  <si>
+    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-03T16:00:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
+  </si>
+  <si>
+    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
+  </si>
+  <si>
+    <t>2019-12-06T20:01:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
+  </si>
+  <si>
+    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
+  </si>
+  <si>
+    <t>2019-12-05T19:10:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
+  </si>
+  <si>
+    <t>Retraites : je souhaite que Macron connaisse un échec</t>
+  </si>
+  <si>
+    <t>2019-12-04T07:52:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
+  </si>
+  <si>
+    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-07T09:00:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
@@ -96,159 +249,6 @@
   </si>
   <si>
     <t>2019-12-09T10:30:58.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
-  </si>
-  <si>
-    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
-  </si>
-  <si>
-    <t>2019-12-05T19:10:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -681,22 +681,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23702</v>
+        <v>85071</v>
       </c>
       <c r="F3" s="3">
-        <v>3315</v>
+        <v>4248</v>
       </c>
       <c r="G3" s="3">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>54</v>
+        <v>464</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -716,22 +716,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>85071</v>
+        <v>52652</v>
       </c>
       <c r="F4" s="3">
-        <v>4248</v>
+        <v>7833</v>
       </c>
       <c r="G4" s="3">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -751,13 +751,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>52652</v>
+        <v>23702</v>
       </c>
       <c r="F5" s="3">
-        <v>7833</v>
+        <v>3315</v>
       </c>
       <c r="G5" s="3">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -780,19 +780,19 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>35734</v>
+        <v>346</v>
       </c>
       <c r="F6" s="3">
-        <v>3785</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -801,33 +801,33 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1073</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>24429</v>
+        <v>1386</v>
       </c>
       <c r="F7" s="3">
-        <v>2588</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -836,33 +836,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>1386</v>
+        <v>1080</v>
       </c>
       <c r="F8" s="3">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -885,16 +885,16 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>346</v>
+        <v>691</v>
       </c>
       <c r="F9" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -920,19 +920,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>691</v>
+        <v>58018</v>
       </c>
       <c r="F10" s="3">
-        <v>13</v>
+        <v>3627</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -955,31 +955,31 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>90458</v>
+        <v>357</v>
       </c>
       <c r="F11" s="3">
-        <v>5026</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -990,19 +990,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>541</v>
+        <v>75707</v>
       </c>
       <c r="F12" s="3">
-        <v>22</v>
+        <v>4287</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1025,19 +1025,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>1080</v>
+        <v>1542</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1066,25 +1066,25 @@
         <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>38571</v>
+        <v>62509</v>
       </c>
       <c r="F14" s="3">
-        <v>5242</v>
+        <v>4841</v>
       </c>
       <c r="G14" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>215</v>
+        <v>526</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1101,13 +1101,13 @@
         <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>58018</v>
+        <v>38571</v>
       </c>
       <c r="F15" s="3">
-        <v>3627</v>
+        <v>5242</v>
       </c>
       <c r="G15" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1136,13 +1136,13 @@
         <v>58</v>
       </c>
       <c r="E16" s="3">
-        <v>75707</v>
+        <v>24429</v>
       </c>
       <c r="F16" s="3">
-        <v>4287</v>
+        <v>2588</v>
       </c>
       <c r="G16" s="3">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1189,7 +1189,7 @@
         <v>647</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1200,31 +1200,31 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="3">
-        <v>575</v>
+        <v>90458</v>
       </c>
       <c r="F18" s="3">
-        <v>38</v>
+        <v>5026</v>
       </c>
       <c r="G18" s="3">
+        <v>113</v>
+      </c>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>687</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1235,19 +1235,19 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3">
-        <v>1542</v>
+        <v>2165</v>
       </c>
       <c r="F19" s="3">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1256,30 +1256,30 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3">
-        <v>357</v>
+        <v>575</v>
       </c>
       <c r="F20" s="3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1291,33 +1291,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="3">
-        <v>2165</v>
+        <v>541</v>
       </c>
       <c r="F21" s="3">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1346,25 +1346,25 @@
         <v>77</v>
       </c>
       <c r="E22" s="3">
-        <v>62509</v>
+        <v>35734</v>
       </c>
       <c r="F22" s="3">
-        <v>4841</v>
+        <v>3785</v>
       </c>
       <c r="G22" s="3">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>526</v>
+        <v>1073</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>URL</t>
   </si>
@@ -53,163 +53,61 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9I5rsGncfh8</t>
-  </si>
-  <si>
-    <t>RETRAITES : Le ras-le-bol est général.</t>
-  </si>
-  <si>
-    <t>JEAN-LUC MÉLENCHON</t>
-  </si>
-  <si>
-    <t>2019-12-22T19:50:20.000Z</t>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>['JEAN-LUC MÉLENCHON']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vgwO-t4uIFQ</t>
-  </si>
-  <si>
-    <t>Avocat contre avocats | Fenêtre sur cour n° 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-03T16:00:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m3wmzkgjhWg</t>
-  </si>
-  <si>
-    <t>RETRAITES : «Le gouvernement doit retirer son projet»</t>
-  </si>
-  <si>
-    <t>2019-12-06T20:01:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i6iwRtzoBbo</t>
-  </si>
-  <si>
-    <t>#RDLS101 - Spéciale grève du 5 décembre - EN DIRECT !</t>
-  </si>
-  <si>
-    <t>2019-12-05T19:10:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iebNBgVzgNI</t>
-  </si>
-  <si>
-    <t>Retraites : je souhaite que Macron connaisse un échec</t>
-  </si>
-  <si>
-    <t>2019-12-04T07:52:41.000Z</t>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
@@ -224,31 +122,22 @@
     <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TJh3UXj55wY</t>
-  </si>
-  <si>
-    <t>Ecoféminisme #2 : Retrouver la terre | Un podcast à soi (22) - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-07T09:00:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lyh0CAZY4VM</t>
-  </si>
-  <si>
-    <t>«C'est un jugement politique» - Mélenchon après le jugement à Bobigny</t>
-  </si>
-  <si>
-    <t>2019-12-09T10:30:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -609,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,95 +570,95 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>85071</v>
+        <v>23164</v>
       </c>
       <c r="F3" s="3">
-        <v>4248</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>52652</v>
+        <v>7772</v>
       </c>
       <c r="F4" s="3">
-        <v>7833</v>
+        <v>239</v>
       </c>
       <c r="G4" s="3">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>23702</v>
+        <v>269112</v>
       </c>
       <c r="F5" s="3">
-        <v>3315</v>
+        <v>5243</v>
       </c>
       <c r="G5" s="3">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -780,54 +669,54 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="3">
-        <v>346</v>
+        <v>11977</v>
       </c>
       <c r="F6" s="3">
+        <v>324</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="3">
-        <v>1386</v>
+        <v>10335</v>
       </c>
       <c r="F7" s="3">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -836,33 +725,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>1080</v>
+        <v>2165</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -871,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -885,19 +774,19 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>691</v>
+        <v>2352</v>
       </c>
       <c r="F9" s="3">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -906,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -926,13 +815,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>58018</v>
+        <v>9999</v>
       </c>
       <c r="F10" s="3">
-        <v>3627</v>
+        <v>357</v>
       </c>
       <c r="G10" s="3">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -941,430 +830,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3">
-        <v>357</v>
-      </c>
-      <c r="F11" s="3">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>75707</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4287</v>
-      </c>
-      <c r="G12" s="3">
-        <v>108</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>628</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1542</v>
-      </c>
-      <c r="F13" s="3">
-        <v>48</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3">
-        <v>62509</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4841</v>
-      </c>
-      <c r="G14" s="3">
-        <v>96</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>526</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3">
-        <v>38571</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5242</v>
-      </c>
-      <c r="G15" s="3">
-        <v>90</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>215</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3">
-        <v>24429</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2588</v>
-      </c>
-      <c r="G16" s="3">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>588</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3">
-        <v>106303</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4496</v>
-      </c>
-      <c r="G17" s="3">
-        <v>161</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>647</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3">
-        <v>90458</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5026</v>
-      </c>
-      <c r="G18" s="3">
-        <v>113</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>687</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2165</v>
-      </c>
-      <c r="F19" s="3">
-        <v>278</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3">
-        <v>575</v>
-      </c>
-      <c r="F20" s="3">
-        <v>38</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3">
-        <v>541</v>
-      </c>
-      <c r="F21" s="3">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3">
-        <v>35734</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3785</v>
-      </c>
-      <c r="G22" s="3">
-        <v>70</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1073</v>
-      </c>
-      <c r="L22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1377,18 +846,6 @@
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A12" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A14" r:id="rId12"/>
-    <hyperlink ref="A15" r:id="rId13"/>
-    <hyperlink ref="A16" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A19" r:id="rId17"/>
-    <hyperlink ref="A20" r:id="rId18"/>
-    <hyperlink ref="A21" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1416,7 +873,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1424,7 +881,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +53,21 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -65,7 +80,43 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -77,6 +128,15 @@
     <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
   </si>
   <si>
@@ -87,57 +147,6 @@
   </si>
   <si>
     <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -498,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,13 +579,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23164</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -585,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -599,28 +608,28 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>7772</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -628,25 +637,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>269112</v>
+        <v>2352</v>
       </c>
       <c r="F5" s="3">
-        <v>5243</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -663,25 +672,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>11977</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -690,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -704,19 +713,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>10335</v>
+        <v>11977</v>
       </c>
       <c r="F7" s="3">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -739,19 +748,19 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="3">
-        <v>2165</v>
+        <v>10335</v>
       </c>
       <c r="F8" s="3">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -760,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -768,25 +777,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="3">
-        <v>2352</v>
+        <v>7772</v>
       </c>
       <c r="F9" s="3">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -795,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -803,16 +812,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>9999</v>
@@ -833,6 +842,41 @@
         <v>20</v>
       </c>
       <c r="L10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3">
+        <v>269112</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5243</v>
+      </c>
+      <c r="G11" s="3">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>246</v>
+      </c>
+      <c r="L11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -846,6 +890,7 @@
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -873,7 +918,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -881,7 +926,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
@@ -80,6 +80,66 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
   </si>
   <si>
@@ -89,16 +149,64 @@
     <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
+  </si>
+  <si>
+    <t>2019-12-09T09:45:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
+  </si>
+  <si>
+    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-02T11:13:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mz1dIfHwnVQ</t>
+  </si>
+  <si>
+    <t>Cercle Polar : lumières noires pour les fêtes</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:04:45.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
@@ -110,15 +218,6 @@
     <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
   </si>
   <si>
@@ -128,25 +227,13 @@
     <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -507,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,19 +730,19 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>2352</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -664,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -672,22 +759,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -707,25 +794,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -734,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -742,25 +829,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>10335</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -769,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -777,25 +864,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>7772</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -804,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -812,25 +899,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -839,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -847,25 +934,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>269112</v>
+        <v>2352</v>
       </c>
       <c r="F11" s="3">
-        <v>5243</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -874,9 +961,359 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>357</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10335</v>
+      </c>
+      <c r="F15" s="3">
+        <v>291</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12004</v>
+      </c>
+      <c r="F17" s="3">
+        <v>691</v>
+      </c>
+      <c r="G17" s="3">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3">
+        <v>202</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3">
+        <v>11977</v>
+      </c>
+      <c r="F19" s="3">
+        <v>324</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7772</v>
+      </c>
+      <c r="F20" s="3">
+        <v>239</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3">
+        <v>619</v>
+      </c>
+      <c r="F21" s="3">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -891,6 +1328,16 @@
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
     <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -926,7 +1373,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>URL</t>
   </si>
@@ -68,58 +68,193 @@
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=StSRcuc0qNE</t>
+  </si>
+  <si>
+    <t>Le bide magistral de Djebbari, secrétaire d'Etat, à la SNCF</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>2019-12-09T09:45:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
   </si>
   <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-10T11:04:16.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
@@ -131,109 +266,13 @@
     <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
-  </si>
-  <si>
-    <t>2019-12-09T09:45:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IaRQjJvU3C4</t>
-  </si>
-  <si>
-    <t>la mayonnaise / haut comme trois pommes / Kevin Kühnert - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-02T11:13:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mz1dIfHwnVQ</t>
-  </si>
-  <si>
-    <t>Cercle Polar : lumières noires pour les fêtes</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:04:45.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -594,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,22 +740,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>653</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -724,25 +763,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>43</v>
+        <v>630</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -751,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -759,22 +798,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -800,16 +839,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -870,19 +909,19 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -891,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -905,19 +944,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -926,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -940,19 +979,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>2352</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -961,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -969,25 +1008,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
-        <v>9999</v>
+        <v>12004</v>
       </c>
       <c r="F12" s="3">
-        <v>357</v>
+        <v>691</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -996,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1004,25 +1043,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1031,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1039,25 +1078,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
-        <v>62</v>
+        <v>1274</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1066,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1074,25 +1113,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
-        <v>10335</v>
+        <v>188</v>
       </c>
       <c r="F15" s="3">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1101,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1109,25 +1148,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1136,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1144,25 +1183,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
-        <v>12004</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3">
-        <v>691</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1171,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1179,22 +1218,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1214,25 +1253,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1241,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1249,25 +1288,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3">
-        <v>7772</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1276,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1284,25 +1323,25 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1311,9 +1350,149 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3">
+        <v>692</v>
+      </c>
+      <c r="F23" s="3">
+        <v>82</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="3">
+        <v>425</v>
+      </c>
+      <c r="F25" s="3">
+        <v>62</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1338,6 +1517,10 @@
     <hyperlink ref="A19" r:id="rId17"/>
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1345,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1373,9 +1556,17 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>URL</t>
   </si>
@@ -53,73 +53,172 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
   </si>
   <si>
     <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=StSRcuc0qNE</t>
-  </si>
-  <si>
-    <t>Le bide magistral de Djebbari, secrétaire d'Etat, à la SNCF</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
@@ -131,114 +230,6 @@
     <t>2019-12-12T15:14:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=plFHUOiKSYc</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-09T09:45:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
   </si>
   <si>
@@ -246,33 +237,6 @@
   </si>
   <si>
     <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -633,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -714,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -723,27 +687,27 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>653</v>
+        <v>188</v>
       </c>
       <c r="F4" s="3">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -755,65 +719,65 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="3">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F5" s="3">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="3">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -828,27 +792,27 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="3">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -863,24 +827,24 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -898,30 +862,30 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="3">
-        <v>1080</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -930,21 +894,21 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -968,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -979,19 +943,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>12004</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1000,33 +964,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="3">
-        <v>12004</v>
+        <v>1274</v>
       </c>
       <c r="F12" s="3">
-        <v>691</v>
+        <v>128</v>
       </c>
       <c r="G12" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1035,33 +999,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="3">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="F13" s="3">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1070,33 +1034,33 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="3">
-        <v>1274</v>
+        <v>425</v>
       </c>
       <c r="F14" s="3">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1105,33 +1069,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="3">
-        <v>188</v>
+        <v>1185</v>
       </c>
       <c r="F15" s="3">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1140,33 +1104,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
       <c r="E16" s="3">
-        <v>1185</v>
+        <v>653</v>
       </c>
       <c r="F16" s="3">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1175,24 +1139,24 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="3">
         <v>43</v>
@@ -1213,27 +1177,27 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1248,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
@@ -1283,31 +1247,31 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="3">
-        <v>62</v>
+        <v>1080</v>
       </c>
       <c r="F20" s="3">
+        <v>101</v>
+      </c>
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1315,30 +1279,30 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1353,147 +1317,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="3">
-        <v>692</v>
-      </c>
-      <c r="F23" s="3">
-        <v>82</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="3">
-        <v>425</v>
-      </c>
-      <c r="F25" s="3">
-        <v>62</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
-      <c r="L25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1517,10 +1341,6 @@
     <hyperlink ref="A19" r:id="rId17"/>
     <hyperlink ref="A20" r:id="rId18"/>
     <hyperlink ref="A21" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1528,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1548,7 +1368,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1556,17 +1376,9 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,22 +53,172 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
   </si>
   <si>
     <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
   </si>
   <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
@@ -80,102 +230,6 @@
     <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
   </si>
   <si>
@@ -183,60 +237,6 @@
   </si>
   <si>
     <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -669,14 +669,14 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="F3" s="3">
+        <v>128</v>
+      </c>
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -698,16 +698,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -727,26 +727,26 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>619</v>
+        <v>12004</v>
       </c>
       <c r="F5" s="3">
+        <v>691</v>
+      </c>
+      <c r="G5" s="3">
         <v>29</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -762,22 +762,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -797,25 +797,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -832,22 +832,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -867,22 +867,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -902,25 +902,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>12004</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -978,16 +978,16 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>1274</v>
+        <v>641</v>
       </c>
       <c r="F12" s="3">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1013,16 +1013,16 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>692</v>
+        <v>226</v>
       </c>
       <c r="F13" s="3">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1048,16 +1048,16 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="3">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1083,19 +1083,19 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>1185</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1118,19 +1118,19 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="3">
-        <v>653</v>
+        <v>1080</v>
       </c>
       <c r="F16" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1153,19 +1153,19 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1188,19 +1188,19 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1229,10 +1229,10 @@
         <v>67</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1258,19 +1258,19 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="3">
-        <v>1080</v>
+        <v>188</v>
       </c>
       <c r="F20" s="3">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1299,13 +1299,13 @@
         <v>73</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>URL</t>
   </si>
@@ -53,64 +53,109 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
   </si>
   <si>
     <t>Les prophéties de Christophe Barbier</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-16T17:17:16.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
@@ -120,123 +165,6 @@
   </si>
   <si>
     <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -597,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,13 +597,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>1274</v>
+        <v>1185</v>
       </c>
       <c r="F3" s="3">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -684,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -704,10 +632,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -733,19 +661,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>12004</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="3">
-        <v>691</v>
+        <v>101</v>
       </c>
       <c r="G5" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -754,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -774,13 +702,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -803,16 +731,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="3">
-        <v>43</v>
+        <v>1274</v>
       </c>
       <c r="F7" s="3">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -824,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -832,22 +760,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>653</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -859,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -879,13 +807,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>425</v>
+        <v>641</v>
       </c>
       <c r="F9" s="3">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -894,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -908,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -929,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -943,13 +871,13 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -978,19 +906,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>641</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -999,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1013,16 +941,16 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>226</v>
+        <v>653</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -1034,289 +962,9 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1080</v>
-      </c>
-      <c r="F16" s="3">
-        <v>101</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3">
-        <v>619</v>
-      </c>
-      <c r="F18" s="3">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3">
-        <v>692</v>
-      </c>
-      <c r="F19" s="3">
-        <v>82</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="3">
-        <v>188</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1185</v>
-      </c>
-      <c r="F21" s="3">
-        <v>84</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1333,14 +981,6 @@
     <hyperlink ref="A11" r:id="rId9"/>
     <hyperlink ref="A12" r:id="rId10"/>
     <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A14" r:id="rId12"/>
-    <hyperlink ref="A15" r:id="rId13"/>
-    <hyperlink ref="A16" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A19" r:id="rId17"/>
-    <hyperlink ref="A20" r:id="rId18"/>
-    <hyperlink ref="A21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1376,7 +1016,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,34 +53,100 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
   </si>
   <si>
     <t>Macron oublie Noël (Partie 2)</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
@@ -92,36 +158,6 @@
     <t>2019-12-12T15:14:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
   </si>
   <si>
@@ -129,42 +165,6 @@
   </si>
   <si>
     <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -597,13 +597,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>1185</v>
+        <v>1274</v>
       </c>
       <c r="F3" s="3">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -632,10 +632,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>1080</v>
+        <v>692</v>
       </c>
       <c r="F5" s="3">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -696,19 +696,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -725,25 +725,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>1274</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -760,19 +760,19 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -807,13 +807,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>641</v>
+        <v>1185</v>
       </c>
       <c r="F9" s="3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -842,10 +842,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>692</v>
+        <v>653</v>
       </c>
       <c r="F10" s="3">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -871,19 +871,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>32</v>
+        <v>1080</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -947,13 +947,13 @@
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F13" s="3">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -53,57 +53,111 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
   </si>
   <si>
     <t>Les prophéties de Christophe Barbier</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-16T17:17:16.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
   </si>
   <si>
     <t>Besançon subventionne le sport automobile</t>
   </si>
   <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
     <t>2019-12-18T18:50:33.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
   </si>
   <si>
@@ -111,60 +165,6 @@
   </si>
   <si>
     <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -597,13 +597,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>1274</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -632,13 +632,13 @@
         <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>692</v>
@@ -690,22 +690,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="3">
-        <v>61</v>
+        <v>1185</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -766,16 +766,16 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>226</v>
+        <v>653</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -801,19 +801,19 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="F9" s="3">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>653</v>
+        <v>1274</v>
       </c>
       <c r="F10" s="3">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -871,19 +871,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="3">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>1080</v>
+        <v>641</v>
       </c>
       <c r="F12" s="3">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -947,13 +947,13 @@
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>641</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>URL</t>
   </si>
@@ -53,118 +53,79 @@
     <t>Top Channels Recommending It with &gt; 100k subs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
   </si>
   <si>
     <t>Va-t-on vers une dédollarisation des échanges?</t>
   </si>
   <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
     <t>2019-12-11T11:14:09.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -525,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,22 +558,22 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>21</v>
+        <v>9999</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -626,16 +587,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3">
-        <v>43</v>
+        <v>2352</v>
       </c>
       <c r="F4" s="3">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -647,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -655,22 +616,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3">
-        <v>692</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -682,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -690,25 +651,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="3">
-        <v>226</v>
+        <v>11977</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -717,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -725,22 +686,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="3">
-        <v>1185</v>
+        <v>7772</v>
       </c>
       <c r="F7" s="3">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
@@ -752,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -760,22 +721,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="3">
-        <v>653</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -787,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -795,176 +756,36 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="3">
-        <v>1080</v>
+        <v>23164</v>
       </c>
       <c r="F9" s="3">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1274</v>
-      </c>
-      <c r="F10" s="3">
-        <v>128</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>641</v>
-      </c>
-      <c r="F12" s="3">
-        <v>80</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3">
-        <v>61</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -977,10 +798,6 @@
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A12" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -988,7 +805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,17 +825,9 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -71,6 +71,36 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
   </si>
   <si>
@@ -80,16 +110,13 @@
     <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
@@ -99,33 +126,6 @@
   </si>
   <si>
     <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -587,19 +587,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>2352</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -616,13 +616,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -663,10 +663,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>11977</v>
+        <v>7772</v>
       </c>
       <c r="F6" s="3">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -698,13 +698,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>7772</v>
+        <v>2352</v>
       </c>
       <c r="F7" s="3">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -727,28 +727,28 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>21</v>
+        <v>23164</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -768,22 +768,22 @@
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>23164</v>
+        <v>11977</v>
       </c>
       <c r="F9" s="3">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -83,6 +83,42 @@
     <t>2019-12-11T11:14:09.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
   </si>
   <si>
@@ -90,42 +126,6 @@
   </si>
   <si>
     <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -622,19 +622,19 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>61</v>
+        <v>11977</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -663,22 +663,22 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>7772</v>
+        <v>23164</v>
       </c>
       <c r="F6" s="3">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -733,22 +733,22 @@
         <v>33</v>
       </c>
       <c r="E8" s="3">
-        <v>23164</v>
+        <v>7772</v>
       </c>
       <c r="F8" s="3">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -762,19 +762,19 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>11977</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>URL</t>
   </si>
@@ -71,18 +71,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
   </si>
   <si>
@@ -101,6 +89,15 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
   </si>
   <si>
@@ -108,24 +105,6 @@
   </si>
   <si>
     <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -486,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,19 +566,19 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>11977</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -608,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -616,34 +595,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>11977</v>
+        <v>23164</v>
       </c>
       <c r="F5" s="3">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -651,34 +630,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>23164</v>
+        <v>7772</v>
       </c>
       <c r="F6" s="3">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="G6" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -686,16 +665,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3">
         <v>2352</v>
@@ -716,76 +695,6 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7772</v>
-      </c>
-      <c r="F8" s="3">
-        <v>239</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -796,8 +705,6 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -805,7 +712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -823,14 +730,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -71,6 +71,15 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
   </si>
   <si>
@@ -78,15 +87,6 @@
   </si>
   <si>
     <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -572,22 +572,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>11977</v>
+        <v>23164</v>
       </c>
       <c r="F4" s="3">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -607,22 +607,22 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>23164</v>
+        <v>11977</v>
       </c>
       <c r="F5" s="3">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>

--- a/app/assets/data/info/evo-france-info-3days-r.xlsx
+++ b/app/assets/data/info/evo-france-info-3days-r.xlsx
@@ -71,6 +71,15 @@
     <t>[]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -80,13 +89,13 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -96,15 +105,6 @@
   </si>
   <si>
     <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 3 days</t>
@@ -572,22 +572,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>23164</v>
+        <v>11977</v>
       </c>
       <c r="F4" s="3">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -607,22 +607,22 @@
         <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>11977</v>
+        <v>23164</v>
       </c>
       <c r="F5" s="3">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -642,13 +642,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="3">
-        <v>7772</v>
+        <v>2352</v>
       </c>
       <c r="F6" s="3">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -677,13 +677,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>2352</v>
+        <v>7772</v>
       </c>
       <c r="F7" s="3">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
